--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>442908.8002945309</v>
+        <v>525921.8322680956</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11285521.15603941</v>
+        <v>10362300.98931095</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9802559.010926563</v>
+        <v>10640527.30929277</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8369582.380946143</v>
+        <v>8036814.19747489</v>
       </c>
     </row>
     <row r="11">
@@ -665,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>38.48106384277808</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="V2" t="n">
-        <v>38.48106384277808</v>
+        <v>25.79717485420768</v>
       </c>
       <c r="W2" t="n">
-        <v>33.89412103271894</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
     </row>
     <row r="3">
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>33.89412103271893</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="S3" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.48106384277808</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="R4" t="n">
-        <v>38.48106384277808</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="S4" t="n">
-        <v>38.48106384277808</v>
+        <v>29.89427490705986</v>
       </c>
       <c r="T4" t="n">
-        <v>33.89412103271894</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.0853779233022</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="E5" t="n">
-        <v>224.6792008748445</v>
+        <v>29.89427490705985</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>255.0853779233022</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>255.0853779233022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,22 +980,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>142.5697095753079</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>29.89427490705985</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8573996139459</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>53.67143055336329</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>29.89427490705985</v>
       </c>
       <c r="U7" t="n">
-        <v>255.0853779233022</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1142,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>232.2791855053265</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>33.89412103271893</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="X8" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.7138800015061</v>
+        <v>38.48106384277808</v>
       </c>
     </row>
     <row r="9">
@@ -1221,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>7.818462221258265</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1263,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>33.89412103271893</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8544875035546</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1297,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.96187038700694</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1342,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>20.64107630343887</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>167.5883138319134</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>118.2217055374126</v>
       </c>
       <c r="U11" t="n">
         <v>251.045250128462</v>
@@ -1433,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705085</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>116.4592409305349</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>289.9627759897079</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>245.3924319518747</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>94.83276152020521</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>261.9657095888484</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.547702772954</v>
+        <v>245.3924319518753</v>
       </c>
       <c r="H17" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>75.49088380154204</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I18" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>69.71950520674542</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>148.09772023155</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.547702772954</v>
+        <v>257.4537670394488</v>
       </c>
       <c r="H20" t="n">
         <v>301.0185525624054</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.5353827049644</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I21" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>50.9807481254283</v>
+        <v>120.3332554667402</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2321,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1904176322534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>301.0185525624054</v>
+        <v>264.2129340777868</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2482,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>49.15028699323057</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>90.69811547110066</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2561,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>67.61460084852177</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>99.15790306825781</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2719,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
         <v>220.7486959972119</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>210.9702857012246</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1.781160222249139</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>126.2340533614555</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>220.4467562824256</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>194.6624603617375</v>
+        <v>79.41653965146527</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>172.0199132219074</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>345.1247515876428</v>
+        <v>277.9438990005043</v>
       </c>
       <c r="H32" t="n">
         <v>301.0185525624054</v>
@@ -3086,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7486959972119</v>
+        <v>120.3332554667402</v>
       </c>
       <c r="U34" t="n">
         <v>286.2271541212006</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.781160222249139</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,16 +3271,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>193.1994278308463</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3326,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>245.3924319518756</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>67.22331801800635</v>
+        <v>120.3332554667402</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>40.88089494079124</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>230.0430230120568</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>206.6581849802338</v>
@@ -3597,7 +3599,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H39" t="n">
-        <v>92.83156789269609</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I39" t="n">
         <v>20.22295923705013</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>56.60860467372795</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>76.44894418086206</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>154.7368436099547</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>167.4147487899557</v>
       </c>
       <c r="I41" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3834,7 +3836,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H42" t="n">
-        <v>92.83156789269609</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I42" t="n">
         <v>20.22295923705013</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>169.9738082135685</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>43.3011250276489</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3983,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>269.4395883094602</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.547702772954</v>
+        <v>193.1994278308463</v>
       </c>
       <c r="H44" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>120.3332554667402</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2271541212006</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>125.2942148585657</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.94824656477384</v>
+        <v>41.13641777246947</v>
       </c>
       <c r="C2" t="n">
-        <v>41.94824656477384</v>
+        <v>41.13641777246947</v>
       </c>
       <c r="D2" t="n">
-        <v>41.94824656477384</v>
+        <v>41.13641777246947</v>
       </c>
       <c r="E2" t="n">
-        <v>3.078485107422246</v>
+        <v>41.13641777246947</v>
       </c>
       <c r="F2" t="n">
-        <v>3.078485107422246</v>
+        <v>6.853677899787311</v>
       </c>
       <c r="G2" t="n">
-        <v>3.078485107422246</v>
+        <v>6.853677899787311</v>
       </c>
       <c r="H2" t="n">
-        <v>3.078485107422246</v>
+        <v>6.853677899787311</v>
       </c>
       <c r="I2" t="n">
-        <v>3.078485107422246</v>
+        <v>6.853677899787311</v>
       </c>
       <c r="J2" t="n">
-        <v>3.078485107422246</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K2" t="n">
-        <v>39.63549575806143</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L2" t="n">
-        <v>39.63549575806143</v>
+        <v>68.55862319738978</v>
       </c>
       <c r="M2" t="n">
-        <v>39.63549575806143</v>
+        <v>68.55862319738978</v>
       </c>
       <c r="N2" t="n">
-        <v>77.73174896241173</v>
+        <v>68.55862319738978</v>
       </c>
       <c r="O2" t="n">
-        <v>115.828002166762</v>
+        <v>102.1591365466056</v>
       </c>
       <c r="P2" t="n">
-        <v>153.9242553711123</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9242553711123</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R2" t="n">
-        <v>153.9242553711123</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="S2" t="n">
-        <v>153.9242553711123</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="T2" t="n">
-        <v>153.9242553711123</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="U2" t="n">
-        <v>115.0544939137607</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="V2" t="n">
-        <v>76.18473245640914</v>
+        <v>75.41915764515164</v>
       </c>
       <c r="W2" t="n">
-        <v>41.94824656477384</v>
+        <v>75.41915764515164</v>
       </c>
       <c r="X2" t="n">
-        <v>41.94824656477384</v>
+        <v>75.41915764515164</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.94824656477384</v>
+        <v>41.13641777246947</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.078485107422246</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="C3" t="n">
-        <v>3.078485107422246</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="D3" t="n">
-        <v>3.078485107422246</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="E3" t="n">
-        <v>3.078485107422246</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="F3" t="n">
-        <v>3.078485107422246</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="G3" t="n">
-        <v>3.078485107422246</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="H3" t="n">
-        <v>3.078485107422246</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="I3" t="n">
-        <v>3.078485107422246</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="J3" t="n">
-        <v>3.078485107422246</v>
+        <v>6.606010638615182</v>
       </c>
       <c r="K3" t="n">
-        <v>41.17473831177254</v>
+        <v>40.20652398783097</v>
       </c>
       <c r="L3" t="n">
-        <v>77.73174896241173</v>
+        <v>73.80703733704675</v>
       </c>
       <c r="M3" t="n">
-        <v>77.73174896241173</v>
+        <v>107.4075506862625</v>
       </c>
       <c r="N3" t="n">
-        <v>77.73174896241173</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="O3" t="n">
-        <v>77.73174896241173</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="P3" t="n">
-        <v>115.828002166762</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q3" t="n">
-        <v>153.9242553711123</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="R3" t="n">
-        <v>119.687769479477</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="S3" t="n">
-        <v>80.81800802212544</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="T3" t="n">
-        <v>41.94824656477384</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="U3" t="n">
-        <v>41.94824656477384</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="V3" t="n">
-        <v>41.94824656477384</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="W3" t="n">
-        <v>41.94824656477384</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="X3" t="n">
-        <v>3.078485107422246</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.078485107422246</v>
+        <v>2.715192997916427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.078485107422246</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="C4" t="n">
-        <v>3.078485107422246</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="D4" t="n">
-        <v>3.078485107422246</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="E4" t="n">
-        <v>3.078485107422246</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="F4" t="n">
-        <v>3.078485107422246</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="G4" t="n">
-        <v>3.078485107422246</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="H4" t="n">
-        <v>3.078485107422246</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="I4" t="n">
-        <v>3.078485107422246</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="J4" t="n">
-        <v>3.078485107422246</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="K4" t="n">
-        <v>3.078485107422246</v>
+        <v>2.715192997916427</v>
       </c>
       <c r="L4" t="n">
-        <v>39.68786127616096</v>
+        <v>36.13746967538605</v>
       </c>
       <c r="M4" t="n">
-        <v>77.78411448051125</v>
+        <v>69.73798302460185</v>
       </c>
       <c r="N4" t="n">
-        <v>115.8803676848616</v>
+        <v>103.3384963738176</v>
       </c>
       <c r="O4" t="n">
-        <v>149.0567829434387</v>
+        <v>133.4848869968162</v>
       </c>
       <c r="P4" t="n">
-        <v>153.9242553711123</v>
+        <v>135.7596498958214</v>
       </c>
       <c r="Q4" t="n">
-        <v>115.0544939137607</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="R4" t="n">
-        <v>76.18473245640914</v>
+        <v>67.19417015045704</v>
       </c>
       <c r="S4" t="n">
-        <v>37.31497099905754</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="T4" t="n">
-        <v>3.078485107422246</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="U4" t="n">
-        <v>3.078485107422246</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="V4" t="n">
-        <v>3.078485107422246</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="W4" t="n">
-        <v>3.078485107422246</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="X4" t="n">
-        <v>3.078485107422246</v>
+        <v>36.99793287059859</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.078485107422246</v>
+        <v>36.99793287059859</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>247.3555179862324</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="C5" t="n">
-        <v>247.3555179862324</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="D5" t="n">
-        <v>247.3555179862324</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="E5" t="n">
-        <v>20.40683023386418</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="F5" t="n">
-        <v>20.40683023386418</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="G5" t="n">
-        <v>20.40683023386418</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="H5" t="n">
-        <v>20.40683023386418</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="I5" t="n">
-        <v>20.40683023386418</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="J5" t="n">
-        <v>41.64108022724748</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="K5" t="n">
-        <v>124.2042348018398</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="L5" t="n">
-        <v>263.532890643093</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="M5" t="n">
-        <v>450.2323034685007</v>
+        <v>34.95810984817397</v>
       </c>
       <c r="N5" t="n">
-        <v>644.5665163604831</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="O5" t="n">
-        <v>814.7355416774426</v>
+        <v>102.1591365466055</v>
       </c>
       <c r="P5" t="n">
-        <v>925.4698669269691</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="Q5" t="n">
-        <v>1020.341511693209</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="R5" t="n">
-        <v>1020.341511693209</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="S5" t="n">
-        <v>1020.341511693209</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="T5" t="n">
-        <v>1020.341511693209</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="U5" t="n">
-        <v>1020.341511693209</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="V5" t="n">
-        <v>762.6795137908834</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="W5" t="n">
-        <v>762.6795137908834</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="X5" t="n">
-        <v>762.6795137908834</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="Y5" t="n">
-        <v>505.0175158885579</v>
+        <v>135.7596498958213</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>595.2134283644623</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="C6" t="n">
-        <v>595.2134283644623</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="D6" t="n">
-        <v>451.2036207126362</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="E6" t="n">
-        <v>451.2036207126362</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="F6" t="n">
-        <v>304.6690627395212</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="G6" t="n">
-        <v>167.2276650987431</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="H6" t="n">
-        <v>66.31168724354769</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="I6" t="n">
-        <v>20.40683023386418</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="J6" t="n">
-        <v>20.40683023386418</v>
+        <v>6.606010638615182</v>
       </c>
       <c r="K6" t="n">
-        <v>88.01464989722122</v>
+        <v>6.606010638615182</v>
       </c>
       <c r="L6" t="n">
-        <v>225.2442479129152</v>
+        <v>40.20652398783096</v>
       </c>
       <c r="M6" t="n">
-        <v>404.74158426752</v>
+        <v>40.20652398783096</v>
       </c>
       <c r="N6" t="n">
-        <v>603.3983259201847</v>
+        <v>40.20652398783096</v>
       </c>
       <c r="O6" t="n">
-        <v>762.9106385889453</v>
+        <v>73.80703733704675</v>
       </c>
       <c r="P6" t="n">
-        <v>871.6002661162441</v>
+        <v>107.4075506862625</v>
       </c>
       <c r="Q6" t="n">
-        <v>1020.341511693209</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="R6" t="n">
-        <v>1020.341511693209</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="S6" t="n">
-        <v>1020.341511693209</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="T6" t="n">
-        <v>823.3522158532966</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="U6" t="n">
-        <v>595.2134283644623</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="V6" t="n">
-        <v>595.2134283644623</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="W6" t="n">
-        <v>595.2134283644623</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="X6" t="n">
-        <v>595.2134283644623</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="Y6" t="n">
-        <v>595.2134283644623</v>
+        <v>32.91143027777485</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.1320710750564</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="C7" t="n">
-        <v>199.1320710750564</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1320710750564</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="E7" t="n">
-        <v>199.1320710750564</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="F7" t="n">
-        <v>199.1320710750564</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="G7" t="n">
-        <v>199.1320710750564</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="H7" t="n">
-        <v>144.9185048595379</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="I7" t="n">
-        <v>20.40683023386418</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="J7" t="n">
-        <v>20.40683023386418</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="K7" t="n">
-        <v>121.454759829474</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="L7" t="n">
-        <v>306.2877547302924</v>
+        <v>36.13746967538604</v>
       </c>
       <c r="M7" t="n">
-        <v>511.5573554495303</v>
+        <v>69.73798302460182</v>
       </c>
       <c r="N7" t="n">
-        <v>717.3807202856347</v>
+        <v>103.3384963738176</v>
       </c>
       <c r="O7" t="n">
-        <v>891.4756156742335</v>
+        <v>133.4848869968162</v>
       </c>
       <c r="P7" t="n">
-        <v>1016.923192272849</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="Q7" t="n">
-        <v>1020.341511693209</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="R7" t="n">
-        <v>889.8635504126116</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="S7" t="n">
-        <v>682.423265665017</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="T7" t="n">
-        <v>456.7940689773819</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="U7" t="n">
-        <v>199.1320710750564</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="V7" t="n">
-        <v>199.1320710750564</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="W7" t="n">
-        <v>199.1320710750564</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="X7" t="n">
-        <v>199.1320710750564</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.1320710750564</v>
+        <v>2.715192997916426</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>522.1002068716687</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="C8" t="n">
-        <v>522.1002068716687</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="D8" t="n">
-        <v>522.1002068716687</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="E8" t="n">
-        <v>522.1002068716687</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="F8" t="n">
-        <v>255.7225503044907</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="G8" t="n">
-        <v>21.09711040012049</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="H8" t="n">
-        <v>21.09711040012049</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="I8" t="n">
-        <v>21.09711040012049</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="J8" t="n">
-        <v>49.28269087917579</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="K8" t="n">
-        <v>142.264087905254</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="L8" t="n">
-        <v>294.5174947515904</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="M8" t="n">
-        <v>495.5981834030604</v>
+        <v>34.47469744057084</v>
       </c>
       <c r="N8" t="n">
-        <v>704.5463761991316</v>
+        <v>72.57095064492114</v>
       </c>
       <c r="O8" t="n">
-        <v>888.5149683358413</v>
+        <v>110.6672038492714</v>
       </c>
       <c r="P8" t="n">
-        <v>1011.026904601763</v>
+        <v>148.7634570536217</v>
       </c>
       <c r="Q8" t="n">
-        <v>1054.855520006025</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="R8" t="n">
-        <v>1054.855520006025</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="S8" t="n">
-        <v>1054.855520006025</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="T8" t="n">
-        <v>1054.855520006025</v>
+        <v>119.687769479477</v>
       </c>
       <c r="U8" t="n">
-        <v>1054.855520006025</v>
+        <v>119.687769479477</v>
       </c>
       <c r="V8" t="n">
-        <v>1054.855520006025</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="W8" t="n">
-        <v>1054.855520006025</v>
+        <v>41.94824656477384</v>
       </c>
       <c r="X8" t="n">
-        <v>788.4778634388466</v>
+        <v>41.94824656477384</v>
       </c>
       <c r="Y8" t="n">
-        <v>522.1002068716687</v>
+        <v>3.078485107422246</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>129.4787088773609</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="C9" t="n">
-        <v>129.4787088773609</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="D9" t="n">
-        <v>129.4787088773609</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="E9" t="n">
-        <v>129.4787088773609</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="F9" t="n">
-        <v>121.5812722902314</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="G9" t="n">
-        <v>121.5812722902314</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="H9" t="n">
-        <v>21.09711040012049</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="I9" t="n">
-        <v>21.09711040012049</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="J9" t="n">
-        <v>21.09711040012049</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="K9" t="n">
-        <v>95.78113116957465</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="L9" t="n">
-        <v>242.5255548298713</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="M9" t="n">
-        <v>433.1262439263951</v>
+        <v>39.63549575806143</v>
       </c>
       <c r="N9" t="n">
-        <v>643.1802110290001</v>
+        <v>39.63549575806143</v>
       </c>
       <c r="O9" t="n">
-        <v>813.1187583557299</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="P9" t="n">
-        <v>930.1763583891335</v>
+        <v>115.828002166762</v>
       </c>
       <c r="Q9" t="n">
-        <v>1054.855520006025</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="R9" t="n">
-        <v>1054.855520006025</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="S9" t="n">
-        <v>1054.855520006025</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="T9" t="n">
-        <v>1054.855520006025</v>
+        <v>119.687769479477</v>
       </c>
       <c r="U9" t="n">
-        <v>826.7196740428381</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="V9" t="n">
-        <v>591.5675658110954</v>
+        <v>41.94824656477384</v>
       </c>
       <c r="W9" t="n">
-        <v>337.3302090828938</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="X9" t="n">
-        <v>129.4787088773609</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="Y9" t="n">
-        <v>129.4787088773609</v>
+        <v>3.078485107422246</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.09711040012049</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="C10" t="n">
-        <v>21.09711040012049</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="D10" t="n">
-        <v>21.09711040012049</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="E10" t="n">
-        <v>21.09711040012049</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="F10" t="n">
-        <v>21.09711040012049</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="G10" t="n">
-        <v>21.09711040012049</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="H10" t="n">
-        <v>21.09711040012049</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="I10" t="n">
-        <v>21.09711040012049</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="J10" t="n">
-        <v>21.09711040012049</v>
+        <v>18.16156656773741</v>
       </c>
       <c r="K10" t="n">
-        <v>126.4133765287947</v>
+        <v>3.078485107422246</v>
       </c>
       <c r="L10" t="n">
-        <v>316.7083726551009</v>
+        <v>39.68786127616096</v>
       </c>
       <c r="M10" t="n">
-        <v>527.7368878375335</v>
+        <v>77.78411448051125</v>
       </c>
       <c r="N10" t="n">
-        <v>739.1822330227046</v>
+        <v>115.8803676848616</v>
       </c>
       <c r="O10" t="n">
-        <v>918.4699372075543</v>
+        <v>149.0567829434387</v>
       </c>
       <c r="P10" t="n">
-        <v>1048.360858816803</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q10" t="n">
-        <v>1054.855520006025</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="R10" t="n">
-        <v>1054.855520006025</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="S10" t="n">
-        <v>1054.855520006025</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="T10" t="n">
-        <v>829.3864837640389</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="U10" t="n">
-        <v>563.0088271968609</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="V10" t="n">
-        <v>308.3243389909741</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="W10" t="n">
-        <v>41.94668242379612</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="X10" t="n">
-        <v>21.09711040012049</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.09711040012049</v>
+        <v>153.9242553711123</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1416.181083656474</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="C11" t="n">
-        <v>1047.218566716063</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="D11" t="n">
-        <v>1047.218566716063</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="E11" t="n">
-        <v>877.9374416333219</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F11" t="n">
-        <v>466.9515368437143</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G11" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H11" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I11" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M11" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N11" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O11" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R11" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S11" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T11" t="n">
-        <v>2353.59368700598</v>
+        <v>2442.923464220951</v>
       </c>
       <c r="U11" t="n">
-        <v>2100.012626270159</v>
+        <v>2189.342403485131</v>
       </c>
       <c r="V11" t="n">
-        <v>1768.949738926588</v>
+        <v>1858.27951614156</v>
       </c>
       <c r="W11" t="n">
-        <v>1416.181083656474</v>
+        <v>1505.510860871446</v>
       </c>
       <c r="X11" t="n">
-        <v>1416.181083656474</v>
+        <v>1132.045102610366</v>
       </c>
       <c r="Y11" t="n">
-        <v>1416.181083656474</v>
+        <v>741.9057706345546</v>
       </c>
     </row>
     <row r="12">
@@ -5094,55 +5096,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966393</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155124</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542611</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488056</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756906</v>
       </c>
       <c r="G12" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182527</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057973</v>
       </c>
       <c r="I12" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J12" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K12" t="n">
-        <v>590.2049751143495</v>
+        <v>590.2049751143504</v>
       </c>
       <c r="L12" t="n">
-        <v>884.9085321458213</v>
+        <v>884.9085321458222</v>
       </c>
       <c r="M12" t="n">
-        <v>1248.170551105041</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N12" t="n">
         <v>1635.455679701987</v>
       </c>
       <c r="O12" t="n">
-        <v>1967.526114878148</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P12" t="n">
-        <v>2214.708848710445</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q12" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R12" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S12" t="n">
         <v>2426.617474780096</v>
@@ -5151,16 +5153,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y12" t="n">
         <v>1099.519478116707</v>
@@ -5173,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.6303371471284</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C13" t="n">
-        <v>768.6303371471284</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D13" t="n">
         <v>768.6303371471284</v>
@@ -5194,19 +5196,19 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I13" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J13" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K13" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M13" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N13" t="n">
         <v>1123.088724245823</v>
@@ -5221,28 +5223,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R13" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S13" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T13" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U13" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V13" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W13" t="n">
-        <v>996.6198880451458</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X13" t="n">
-        <v>768.6303371471284</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y13" t="n">
-        <v>768.6303371471284</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1164.263254713409</v>
+        <v>2172.199996424344</v>
       </c>
       <c r="C14" t="n">
-        <v>795.3007377729978</v>
+        <v>1803.237479483932</v>
       </c>
       <c r="D14" t="n">
-        <v>437.0350391662473</v>
+        <v>1444.971780877182</v>
       </c>
       <c r="E14" t="n">
-        <v>51.2467865680031</v>
+        <v>1059.183528278937</v>
       </c>
       <c r="F14" t="n">
-        <v>51.2467865680031</v>
+        <v>648.1976234893298</v>
       </c>
       <c r="G14" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H14" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I14" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M14" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N14" t="n">
         <v>1656.671415230817</v>
@@ -5315,13 +5317,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W14" t="n">
-        <v>2314.468185014423</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X14" t="n">
-        <v>1941.002426753343</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y14" t="n">
-        <v>1550.863094777531</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1446891756897</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G15" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I15" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J15" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K15" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L15" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M15" t="n">
-        <v>1227.201367341571</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N15" t="n">
-        <v>1861.38035112061</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O15" t="n">
-        <v>2193.450786296772</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P15" t="n">
-        <v>2440.633520129069</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q15" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R15" t="n">
         <v>2562.339328400155</v>
@@ -5388,16 +5390,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V15" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y15" t="n">
         <v>1099.519478116707</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>461.9138669598624</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="C16" t="n">
-        <v>461.9138669598624</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="D16" t="n">
-        <v>461.9138669598624</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E16" t="n">
-        <v>461.9138669598624</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F16" t="n">
-        <v>315.023919461952</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G16" t="n">
-        <v>147.0374547702306</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H16" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I16" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K16" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M16" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N16" t="n">
         <v>1123.088724245823</v>
@@ -5458,28 +5460,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R16" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S16" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T16" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U16" t="n">
-        <v>1636.446120074497</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V16" t="n">
-        <v>1381.76163186861</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W16" t="n">
-        <v>1092.34446183165</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="X16" t="n">
-        <v>864.3549109336323</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="Y16" t="n">
-        <v>643.5623317901021</v>
+        <v>305.8408313751036</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2361.386702945269</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C17" t="n">
-        <v>1992.424186004858</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D17" t="n">
-        <v>1634.158487398107</v>
+        <v>684.90618255198</v>
       </c>
       <c r="E17" t="n">
-        <v>1248.370234799863</v>
+        <v>299.1179299537358</v>
       </c>
       <c r="F17" t="n">
-        <v>837.3843300102556</v>
+        <v>299.1179299537358</v>
       </c>
       <c r="G17" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H17" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I17" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5281822362814</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816078</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L17" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M17" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N17" t="n">
         <v>1656.671415230817</v>
@@ -5540,25 +5542,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S17" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T17" t="n">
-        <v>2361.386702945269</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U17" t="n">
-        <v>2361.386702945269</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V17" t="n">
-        <v>2361.386702945269</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W17" t="n">
-        <v>2361.386702945269</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X17" t="n">
-        <v>2361.386702945269</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y17" t="n">
-        <v>2361.386702945269</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G18" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H18" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I18" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J18" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K18" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L18" t="n">
-        <v>932.4978103100997</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M18" t="n">
-        <v>1295.75982926932</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N18" t="n">
-        <v>1683.044957866265</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O18" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P18" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q18" t="n">
         <v>2562.339328400155</v>
@@ -5625,7 +5627,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V18" t="n">
         <v>1769.368633815395</v>
@@ -5634,7 +5636,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y18" t="n">
         <v>1099.519478116707</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>981.8280128167644</v>
+        <v>121.6705292010793</v>
       </c>
       <c r="C19" t="n">
-        <v>812.8918298888575</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D19" t="n">
-        <v>662.7751904765217</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E19" t="n">
-        <v>514.8620968941286</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F19" t="n">
-        <v>367.9721493962183</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G19" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H19" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I19" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J19" t="n">
         <v>76.71595955312198</v>
@@ -5686,10 +5688,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O19" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P19" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q19" t="n">
         <v>1636.446120074497</v>
@@ -5698,25 +5700,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S19" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T19" t="n">
-        <v>1533.862713590079</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U19" t="n">
-        <v>1533.862713590079</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V19" t="n">
-        <v>1533.862713590079</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W19" t="n">
-        <v>1533.862713590079</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X19" t="n">
-        <v>1384.269056790534</v>
+        <v>342.4631083446094</v>
       </c>
       <c r="Y19" t="n">
-        <v>1163.476477647004</v>
+        <v>121.6705292010793</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>771.0106808461439</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C20" t="n">
-        <v>771.0106808461439</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="D20" t="n">
-        <v>771.0106808461439</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="E20" t="n">
-        <v>771.0106808461439</v>
+        <v>1026.346145500898</v>
       </c>
       <c r="F20" t="n">
-        <v>771.0106808461439</v>
+        <v>615.3602407112903</v>
       </c>
       <c r="G20" t="n">
         <v>355.3059305704328</v>
@@ -5750,16 +5752,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J20" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K20" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L20" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M20" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N20" t="n">
         <v>1656.671415230817</v>
@@ -5777,25 +5779,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S20" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T20" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U20" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V20" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W20" t="n">
-        <v>1291.481876182945</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X20" t="n">
-        <v>918.0161179218655</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y20" t="n">
-        <v>771.0106808461439</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E21" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F21" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I21" t="n">
         <v>51.24678656800311</v>
@@ -5832,25 +5834,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K21" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L21" t="n">
-        <v>717.8525085495378</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M21" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N21" t="n">
-        <v>1541.323645957601</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O21" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P21" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q21" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R21" t="n">
         <v>2562.339328400155</v>
@@ -5862,16 +5864,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U21" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V21" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W21" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y21" t="n">
         <v>1099.519478116707</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1642.491563491408</v>
+        <v>1098.688737789358</v>
       </c>
       <c r="C22" t="n">
-        <v>1473.555380563501</v>
+        <v>1098.688737789358</v>
       </c>
       <c r="D22" t="n">
-        <v>1323.438741151165</v>
+        <v>1098.688737789358</v>
       </c>
       <c r="E22" t="n">
-        <v>1175.525647568772</v>
+        <v>1098.688737789358</v>
       </c>
       <c r="F22" t="n">
-        <v>1028.635700070862</v>
+        <v>1098.688737789358</v>
       </c>
       <c r="G22" t="n">
-        <v>977.1399948936614</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="H22" t="n">
-        <v>977.1399948936614</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I22" t="n">
-        <v>977.1399948936614</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J22" t="n">
         <v>1002.60916787878</v>
@@ -5914,7 +5916,7 @@
         <v>1174.299679627706</v>
       </c>
       <c r="L22" t="n">
-        <v>1449.530858294982</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M22" t="n">
         <v>1750.112669035317</v>
@@ -5941,19 +5943,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U22" t="n">
-        <v>2562.339328400155</v>
+        <v>2273.220990903993</v>
       </c>
       <c r="V22" t="n">
-        <v>2562.339328400155</v>
+        <v>2018.536502698106</v>
       </c>
       <c r="W22" t="n">
-        <v>2272.922158363195</v>
+        <v>1729.119332661145</v>
       </c>
       <c r="X22" t="n">
-        <v>2044.932607465177</v>
+        <v>1501.129781763128</v>
       </c>
       <c r="Y22" t="n">
-        <v>1824.140028321647</v>
+        <v>1280.337202619598</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1918.618935688523</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C23" t="n">
-        <v>1918.618935688523</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="D23" t="n">
-        <v>1560.353237081773</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="E23" t="n">
-        <v>1174.564984483529</v>
+        <v>729.1144429513347</v>
       </c>
       <c r="F23" t="n">
-        <v>763.5790796939211</v>
+        <v>318.1285381617271</v>
       </c>
       <c r="G23" t="n">
-        <v>355.3059305704328</v>
+        <v>318.1285381617271</v>
       </c>
       <c r="H23" t="n">
         <v>51.24678656800311</v>
@@ -5990,10 +5992,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L23" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M23" t="n">
         <v>1220.470313923562</v>
@@ -6020,19 +6022,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U23" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V23" t="n">
-        <v>2308.758267664335</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W23" t="n">
-        <v>2308.758267664335</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X23" t="n">
-        <v>2308.758267664335</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y23" t="n">
-        <v>1918.618935688523</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6062,34 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I24" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J24" t="n">
-        <v>113.5972052500114</v>
+        <v>119.987098413552</v>
       </c>
       <c r="K24" t="n">
-        <v>560.1394111735141</v>
+        <v>304.7087196946019</v>
       </c>
       <c r="L24" t="n">
-        <v>854.8429682049857</v>
+        <v>599.4122767260736</v>
       </c>
       <c r="M24" t="n">
-        <v>1218.104987164206</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N24" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O24" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q24" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R24" t="n">
         <v>2562.339328400155</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>370.2996089082458</v>
+        <v>1642.491563491408</v>
       </c>
       <c r="C25" t="n">
-        <v>201.3634259803388</v>
+        <v>1473.555380563501</v>
       </c>
       <c r="D25" t="n">
-        <v>51.24678656800311</v>
+        <v>1323.438741151165</v>
       </c>
       <c r="E25" t="n">
-        <v>51.24678656800311</v>
+        <v>1175.525647568772</v>
       </c>
       <c r="F25" t="n">
-        <v>51.24678656800311</v>
+        <v>1175.525647568772</v>
       </c>
       <c r="G25" t="n">
-        <v>51.24678656800311</v>
+        <v>1125.878893030155</v>
       </c>
       <c r="H25" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="I25" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="J25" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K25" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L25" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M25" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N25" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O25" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P25" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q25" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R25" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S25" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T25" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U25" t="n">
-        <v>1544.831862022881</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V25" t="n">
-        <v>1290.147373816994</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W25" t="n">
-        <v>1000.730203780033</v>
+        <v>2272.922158363195</v>
       </c>
       <c r="X25" t="n">
-        <v>772.7406528820156</v>
+        <v>2044.932607465177</v>
       </c>
       <c r="Y25" t="n">
-        <v>551.9480737384855</v>
+        <v>1824.140028321647</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>858.9396732896246</v>
+        <v>805.9975561066591</v>
       </c>
       <c r="C26" t="n">
-        <v>489.9771563492129</v>
+        <v>437.0350391662474</v>
       </c>
       <c r="D26" t="n">
-        <v>489.9771563492129</v>
+        <v>437.0350391662474</v>
       </c>
       <c r="E26" t="n">
-        <v>489.9771563492129</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F26" t="n">
-        <v>489.9771563492129</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G26" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H26" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I26" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K26" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M26" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N26" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O26" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P26" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q26" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S26" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T26" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U26" t="n">
-        <v>1975.31341879663</v>
+        <v>2253.434188957235</v>
       </c>
       <c r="V26" t="n">
-        <v>1975.31341879663</v>
+        <v>1922.371301613665</v>
       </c>
       <c r="W26" t="n">
-        <v>1622.544763526516</v>
+        <v>1569.602646343551</v>
       </c>
       <c r="X26" t="n">
-        <v>1249.079005265436</v>
+        <v>1196.136888082471</v>
       </c>
       <c r="Y26" t="n">
-        <v>858.9396732896246</v>
+        <v>805.9975561066591</v>
       </c>
     </row>
     <row r="27">
@@ -6279,55 +6281,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966393</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155124</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542611</v>
       </c>
       <c r="E27" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488056</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756906</v>
       </c>
       <c r="G27" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182527</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057973</v>
       </c>
       <c r="I27" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800384</v>
       </c>
       <c r="J27" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370168</v>
       </c>
       <c r="K27" t="n">
-        <v>590.20497511435</v>
+        <v>614.5430248380235</v>
       </c>
       <c r="L27" t="n">
-        <v>884.9085321458217</v>
+        <v>909.2465818694952</v>
       </c>
       <c r="M27" t="n">
-        <v>1248.170551105042</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N27" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O27" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P27" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q27" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R27" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S27" t="n">
         <v>2426.617474780096</v>
@@ -6339,7 +6341,7 @@
         <v>2004.520742047138</v>
       </c>
       <c r="V27" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W27" t="n">
         <v>1515.131277087194</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>367.1463448421176</v>
+        <v>977.1399948936619</v>
       </c>
       <c r="C28" t="n">
-        <v>367.1463448421176</v>
+        <v>977.1399948936619</v>
       </c>
       <c r="D28" t="n">
-        <v>367.1463448421176</v>
+        <v>977.1399948936619</v>
       </c>
       <c r="E28" t="n">
-        <v>219.2332512597245</v>
+        <v>977.1399948936619</v>
       </c>
       <c r="F28" t="n">
-        <v>219.2332512597245</v>
+        <v>977.1399948936619</v>
       </c>
       <c r="G28" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936619</v>
       </c>
       <c r="H28" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936619</v>
       </c>
       <c r="I28" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936619</v>
       </c>
       <c r="J28" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K28" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L28" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M28" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N28" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571482</v>
       </c>
       <c r="O28" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P28" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q28" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R28" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915738</v>
       </c>
       <c r="S28" t="n">
-        <v>1636.446120074497</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="T28" t="n">
-        <v>1413.467639269233</v>
+        <v>2040.148693270335</v>
       </c>
       <c r="U28" t="n">
-        <v>1124.349301773071</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="V28" t="n">
-        <v>869.6648135671838</v>
+        <v>1496.345867568285</v>
       </c>
       <c r="W28" t="n">
-        <v>580.2476435302233</v>
+        <v>1206.928697531325</v>
       </c>
       <c r="X28" t="n">
-        <v>367.1463448421176</v>
+        <v>978.9391466333075</v>
       </c>
       <c r="Y28" t="n">
-        <v>367.1463448421176</v>
+        <v>977.1399948936619</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>656.1154853312732</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C29" t="n">
-        <v>656.1154853312732</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D29" t="n">
-        <v>656.1154853312732</v>
+        <v>684.90618255198</v>
       </c>
       <c r="E29" t="n">
-        <v>528.6063405217222</v>
+        <v>684.90618255198</v>
       </c>
       <c r="F29" t="n">
-        <v>117.6204357321147</v>
+        <v>273.9202777623725</v>
       </c>
       <c r="G29" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H29" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I29" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J29" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L29" t="n">
         <v>795.7553530872915</v>
@@ -6491,22 +6493,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T29" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U29" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V29" t="n">
-        <v>1768.949738926589</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W29" t="n">
-        <v>1416.181083656475</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X29" t="n">
-        <v>1042.715325395395</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y29" t="n">
-        <v>1042.715325395395</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D30" t="n">
         <v>607.9167021542605</v>
@@ -6528,7 +6530,7 @@
         <v>448.679247148805</v>
       </c>
       <c r="F30" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G30" t="n">
         <v>165.443278618252</v>
@@ -6546,19 +6548,19 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L30" t="n">
-        <v>801.9449557744476</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M30" t="n">
-        <v>1165.206974733668</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N30" t="n">
-        <v>1552.492103330613</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O30" t="n">
-        <v>1884.562538506775</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P30" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q30" t="n">
         <v>2562.339328400155</v>
@@ -6579,7 +6581,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W30" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X30" t="n">
         <v>1307.279776881661</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>981.8280128167644</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="C31" t="n">
-        <v>812.8918298888575</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="D31" t="n">
-        <v>662.7751904765217</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="E31" t="n">
-        <v>514.8620968941286</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="F31" t="n">
-        <v>367.9721493962183</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="G31" t="n">
-        <v>199.9856847044969</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="H31" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="I31" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="J31" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K31" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L31" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M31" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N31" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O31" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P31" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q31" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R31" t="n">
-        <v>1533.86271359008</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S31" t="n">
-        <v>1337.233965749941</v>
+        <v>2482.120601479483</v>
       </c>
       <c r="T31" t="n">
-        <v>1337.233965749941</v>
+        <v>2259.142120674219</v>
       </c>
       <c r="U31" t="n">
-        <v>1337.233965749941</v>
+        <v>1970.023783178056</v>
       </c>
       <c r="V31" t="n">
-        <v>1337.233965749941</v>
+        <v>1715.339294972169</v>
       </c>
       <c r="W31" t="n">
-        <v>1337.233965749941</v>
+        <v>1425.922124935209</v>
       </c>
       <c r="X31" t="n">
-        <v>1337.233965749941</v>
+        <v>1197.932574037191</v>
       </c>
       <c r="Y31" t="n">
-        <v>1163.476477647004</v>
+        <v>977.1399948936614</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1114.902695549579</v>
+        <v>1432.831501090107</v>
       </c>
       <c r="C32" t="n">
-        <v>1114.902695549579</v>
+        <v>1432.831501090107</v>
       </c>
       <c r="D32" t="n">
-        <v>1114.902695549579</v>
+        <v>1432.831501090107</v>
       </c>
       <c r="E32" t="n">
-        <v>1114.902695549579</v>
+        <v>1047.043248491863</v>
       </c>
       <c r="F32" t="n">
-        <v>703.916790759971</v>
+        <v>636.0573437022554</v>
       </c>
       <c r="G32" t="n">
         <v>355.3059305704328</v>
@@ -6698,16 +6700,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J32" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816078</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L32" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M32" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N32" t="n">
         <v>1656.671415230817</v>
@@ -6734,16 +6736,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V32" t="n">
-        <v>2231.276441056584</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W32" t="n">
-        <v>1878.50778578647</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X32" t="n">
-        <v>1505.04202752539</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="Y32" t="n">
-        <v>1114.902695549579</v>
+        <v>1819.431341154229</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E33" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F33" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G33" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057869</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I33" t="n">
         <v>51.2467865680031</v>
@@ -6780,22 +6782,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K33" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L33" t="n">
-        <v>1057.327935297104</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M33" t="n">
-        <v>1420.589954256325</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N33" t="n">
-        <v>1807.87508285327</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.945518029432</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.128251861729</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q33" t="n">
         <v>2562.339328400155</v>
@@ -6880,28 +6882,28 @@
         <v>2562.339328400155</v>
       </c>
       <c r="R34" t="n">
-        <v>2459.755921915737</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S34" t="n">
-        <v>2263.127174075598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T34" t="n">
-        <v>2040.148693270334</v>
+        <v>2440.790585504458</v>
       </c>
       <c r="U34" t="n">
-        <v>1751.030355774172</v>
+        <v>2151.672248008295</v>
       </c>
       <c r="V34" t="n">
-        <v>1496.345867568285</v>
+        <v>1896.987759802409</v>
       </c>
       <c r="W34" t="n">
-        <v>1206.928697531324</v>
+        <v>1607.570589765448</v>
       </c>
       <c r="X34" t="n">
-        <v>978.9391466333066</v>
+        <v>1379.581038867431</v>
       </c>
       <c r="Y34" t="n">
-        <v>977.139994893661</v>
+        <v>1158.788459723901</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1164.26325471341</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C35" t="n">
-        <v>795.3007377729979</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D35" t="n">
-        <v>437.0350391662474</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="E35" t="n">
-        <v>51.24678656800312</v>
+        <v>657.3836285604857</v>
       </c>
       <c r="F35" t="n">
-        <v>51.24678656800312</v>
+        <v>246.3977237708781</v>
       </c>
       <c r="G35" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H35" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I35" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J35" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L35" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M35" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N35" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O35" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P35" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q35" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R35" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S35" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T35" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U35" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V35" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W35" t="n">
-        <v>2314.468185014423</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X35" t="n">
-        <v>1941.002426753343</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y35" t="n">
-        <v>1550.863094777531</v>
+        <v>1798.734238163263</v>
       </c>
     </row>
     <row r="36">
@@ -6990,55 +6992,55 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E36" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G36" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057903</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I36" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J36" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K36" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L36" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M36" t="n">
-        <v>1209.25321078144</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.432194560478</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O36" t="n">
-        <v>2175.50262973664</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.685363568937</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q36" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R36" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S36" t="n">
         <v>2426.617474780096</v>
@@ -7047,16 +7049,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V36" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y36" t="n">
         <v>1099.519478116707</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2013.57636781303</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C37" t="n">
-        <v>1844.640184885123</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D37" t="n">
-        <v>1694.523545472787</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E37" t="n">
-        <v>1546.610451890394</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F37" t="n">
-        <v>1399.720504392484</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G37" t="n">
-        <v>1231.734039700762</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H37" t="n">
-        <v>1082.995141564269</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I37" t="n">
-        <v>977.1399948936619</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J37" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K37" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L37" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M37" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N37" t="n">
-        <v>2048.981932571482</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O37" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P37" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q37" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R37" t="n">
-        <v>2459.755921915738</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>2263.127174075599</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T37" t="n">
-        <v>2195.22483264327</v>
+        <v>1514.8973771788</v>
       </c>
       <c r="U37" t="n">
-        <v>2195.22483264327</v>
+        <v>1225.779039682638</v>
       </c>
       <c r="V37" t="n">
-        <v>2195.22483264327</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W37" t="n">
-        <v>2195.22483264327</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X37" t="n">
-        <v>2195.22483264327</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y37" t="n">
-        <v>2195.22483264327</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>486.5829526725264</v>
+        <v>652.5759934195833</v>
       </c>
       <c r="C38" t="n">
-        <v>117.6204357321147</v>
+        <v>283.6134764791715</v>
       </c>
       <c r="D38" t="n">
-        <v>117.6204357321147</v>
+        <v>283.6134764791715</v>
       </c>
       <c r="E38" t="n">
-        <v>117.6204357321147</v>
+        <v>283.6134764791715</v>
       </c>
       <c r="F38" t="n">
-        <v>117.6204357321147</v>
+        <v>283.6134764791715</v>
       </c>
       <c r="G38" t="n">
-        <v>117.6204357321147</v>
+        <v>283.6134764791715</v>
       </c>
       <c r="H38" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I38" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J38" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L38" t="n">
         <v>795.7553530872915</v>
@@ -7199,25 +7201,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S38" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T38" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U38" t="n">
-        <v>1975.313418796629</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V38" t="n">
-        <v>1644.250531453059</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W38" t="n">
-        <v>1291.481876182944</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X38" t="n">
-        <v>918.0161179218646</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y38" t="n">
-        <v>527.8767859460529</v>
+        <v>652.5759934195833</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1446891756897</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I39" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J39" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K39" t="n">
         <v>298.3188265310613</v>
@@ -7260,16 +7262,16 @@
         <v>593.0223835625329</v>
       </c>
       <c r="M39" t="n">
-        <v>956.284402521753</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N39" t="n">
-        <v>1343.569531118698</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O39" t="n">
-        <v>1675.63996629486</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P39" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q39" t="n">
         <v>2538.001278676482</v>
@@ -7284,16 +7286,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V39" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y39" t="n">
         <v>1099.519478116707</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1353.373225995245</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="C40" t="n">
-        <v>1184.437043067338</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="D40" t="n">
-        <v>1034.320403655002</v>
+        <v>425.1199340251345</v>
       </c>
       <c r="E40" t="n">
-        <v>977.139994893661</v>
+        <v>277.2068404427414</v>
       </c>
       <c r="F40" t="n">
-        <v>977.139994893661</v>
+        <v>277.2068404427414</v>
       </c>
       <c r="G40" t="n">
-        <v>977.139994893661</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H40" t="n">
-        <v>977.139994893661</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I40" t="n">
-        <v>977.139994893661</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J40" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K40" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L40" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M40" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N40" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O40" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P40" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q40" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R40" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T40" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.220990903993</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V40" t="n">
-        <v>2273.220990903993</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W40" t="n">
-        <v>1983.803820867032</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X40" t="n">
-        <v>1755.814269969015</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y40" t="n">
-        <v>1535.021690825484</v>
+        <v>575.2365734374703</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1412.134398099142</v>
+        <v>1432.831501090107</v>
       </c>
       <c r="C41" t="n">
-        <v>1043.17188115873</v>
+        <v>1432.831501090107</v>
       </c>
       <c r="D41" t="n">
-        <v>684.9061825519796</v>
+        <v>1432.831501090107</v>
       </c>
       <c r="E41" t="n">
-        <v>684.9061825519796</v>
+        <v>1047.043248491863</v>
       </c>
       <c r="F41" t="n">
-        <v>273.920277762372</v>
+        <v>636.0573437022554</v>
       </c>
       <c r="G41" t="n">
-        <v>117.6204357321147</v>
+        <v>220.3525934265442</v>
       </c>
       <c r="H41" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I41" t="n">
         <v>51.2467865680031</v>
@@ -7448,13 +7450,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W41" t="n">
-        <v>2562.339328400155</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X41" t="n">
-        <v>2188.873570139075</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="Y41" t="n">
-        <v>1798.734238163263</v>
+        <v>1819.431341154229</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H42" t="n">
         <v>71.67401812057899</v>
@@ -7488,28 +7490,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J42" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K42" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L42" t="n">
-        <v>777.6069060507741</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.868925009994</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.154053606939</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O42" t="n">
-        <v>1860.224488783101</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q42" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R42" t="n">
         <v>2562.339328400155</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2013.576367813029</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C43" t="n">
-        <v>1844.640184885122</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D43" t="n">
-        <v>1694.523545472786</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E43" t="n">
-        <v>1546.610451890393</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F43" t="n">
-        <v>1399.720504392483</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G43" t="n">
-        <v>1231.734039700762</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H43" t="n">
-        <v>1082.995141564268</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I43" t="n">
-        <v>977.139994893661</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J43" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K43" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L43" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M43" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N43" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O43" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P43" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q43" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R43" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S43" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T43" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U43" t="n">
-        <v>2459.755921915737</v>
+        <v>1464.755404707256</v>
       </c>
       <c r="V43" t="n">
-        <v>2459.755921915737</v>
+        <v>1210.070916501369</v>
       </c>
       <c r="W43" t="n">
-        <v>2459.755921915737</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="X43" t="n">
-        <v>2416.017411786799</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y43" t="n">
-        <v>2195.224832643269</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="44">
@@ -7631,13 +7633,13 @@
         <v>1043.17188115873</v>
       </c>
       <c r="E44" t="n">
-        <v>1043.17188115873</v>
+        <v>657.3836285604857</v>
       </c>
       <c r="F44" t="n">
-        <v>771.0106808461439</v>
+        <v>246.3977237708781</v>
       </c>
       <c r="G44" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H44" t="n">
         <v>51.2467865680031</v>
@@ -7649,13 +7651,13 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816078</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L44" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N44" t="n">
         <v>1656.671415230817</v>
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I45" t="n">
         <v>51.2467865680031</v>
@@ -7728,25 +7730,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K45" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L45" t="n">
-        <v>979.6730931919906</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M45" t="n">
-        <v>1342.935112151211</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N45" t="n">
-        <v>1730.220240748156</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O45" t="n">
-        <v>2062.290675924318</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P45" t="n">
-        <v>2309.473409756615</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q45" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R45" t="n">
         <v>2562.339328400155</v>
@@ -7831,19 +7833,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S46" t="n">
-        <v>1636.446120074497</v>
+        <v>1514.8973771788</v>
       </c>
       <c r="T46" t="n">
-        <v>1413.467639269233</v>
+        <v>1514.8973771788</v>
       </c>
       <c r="U46" t="n">
-        <v>1124.34930177307</v>
+        <v>1225.779039682638</v>
       </c>
       <c r="V46" t="n">
-        <v>869.6648135671836</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W46" t="n">
-        <v>580.2476435302231</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X46" t="n">
         <v>453.6878305417729</v>
@@ -7979,25 +7981,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>239.1072372206186</v>
+        <v>242.2613672256909</v>
       </c>
       <c r="L2" t="n">
-        <v>213.5488567752802</v>
+        <v>253.7352816144805</v>
       </c>
       <c r="M2" t="n">
-        <v>205.6249188705004</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
-        <v>242.7727963709657</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O2" t="n">
-        <v>244.8579146936526</v>
+        <v>248.4501999472249</v>
       </c>
       <c r="P2" t="n">
-        <v>249.4684271639326</v>
+        <v>251.8689757786172</v>
       </c>
       <c r="Q2" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>164.1585617237782</v>
+        <v>163.7881088975641</v>
       </c>
       <c r="L3" t="n">
-        <v>159.1247332407705</v>
+        <v>161.7463912169474</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>163.5316528316735</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7499598249992</v>
+        <v>147.1059453792048</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
-        <v>158.0709840006057</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.8471891366352</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,10 +8145,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>167.5073133874343</v>
+        <v>166.3604544925717</v>
       </c>
       <c r="N4" t="n">
-        <v>156.5024627066172</v>
+        <v>155.2748951233406</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>246.6698164773692</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>246.8450950403531</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>248.4501999472249</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>251.8689757786172</v>
       </c>
       <c r="Q5" t="n">
-        <v>60.49244923701495</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>161.7463912169474</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>164.7587326673596</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>158.4618986107626</v>
       </c>
       <c r="Q6" t="n">
-        <v>127.2770751262504</v>
+        <v>162.3015648368704</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,10 +8382,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>166.3604544925717</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>155.2748951233406</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>237.3382646615596</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>242.7727963709657</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>244.8579146936526</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>249.4684271639326</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>60.51967546761153</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>2.051220519418266</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>159.973720214579</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>163.154682530332</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>158.0709840006057</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.32166909127237</v>
+        <v>168.8471891366352</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,10 +8619,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>167.5073133874343</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>156.5024627066172</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>168.7434581780641</v>
+        <v>168.743458178065</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>249.3877325071649</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>129.4330134067488</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.454437538929696</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L18" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>186.5911984019046</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>73.66059580999797</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>6.454437538929938</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>240.4465442417442</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>168.7434581780645</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,13 +10196,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>211.0329012241562</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>0.9556134883067671</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>20.9377812015499</v>
@@ -10428,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L33" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>60.5001630614953</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>20.9377812015499</v>
@@ -10662,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>255.5240487471581</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10908,19 +10910,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>231.2582814363245</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>294.834493518473</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L42" t="n">
-        <v>186.449012614385</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>114.3555089013345</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22553,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>343.4493062294837</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>372.9361332677561</v>
       </c>
       <c r="G2" t="n">
-        <v>415.1619485273195</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>212.8533259460332</v>
+        <v>217.3983391449769</v>
       </c>
       <c r="V2" t="n">
-        <v>289.2711946273568</v>
+        <v>301.9550836159272</v>
       </c>
       <c r="W2" t="n">
-        <v>315.3468476846941</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>352.2980261820982</v>
       </c>
     </row>
     <row r="3">
@@ -22638,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>61.58672286766064</v>
+        <v>67.19018711997771</v>
       </c>
       <c r="S3" t="n">
-        <v>131.8029087785551</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>161.3800371293938</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>191.9982129962619</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>198.8606746754699</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>167.2919213606994</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>171.742783303349</v>
       </c>
     </row>
     <row r="4">
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>56.48524998443612</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.39276904032838</v>
+        <v>48.74710999203386</v>
       </c>
       <c r="R4" t="n">
-        <v>135.9727348210014</v>
+        <v>141.487508562741</v>
       </c>
       <c r="S4" t="n">
-        <v>184.4349480171686</v>
+        <v>193.3990992838374</v>
       </c>
       <c r="T4" t="n">
-        <v>193.7816324523168</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>127.6484637401783</v>
+        <v>348.7939291895252</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>331.3329792970522</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>320.7431291467276</v>
       </c>
       <c r="E5" t="n">
-        <v>157.2511691974173</v>
+        <v>352.0360951652019</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
-        <v>72.66688054683266</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>131.1525607327513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22866,22 +22868,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>4.875355989330899</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>57.79806498122979</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183509</v>
+        <v>63.14454955308224</v>
       </c>
       <c r="S6" t="n">
-        <v>147.9721212459916</v>
+        <v>136.8238088593301</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>191.9982129962619</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>99.04066611586926</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>48.74710999203387</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>141.487508562741</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.3534617169419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>197.8739982939628</v>
       </c>
       <c r="U7" t="n">
-        <v>31.17527673479475</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23030,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>143.1621657402053</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>180.5549891403835</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H8" t="n">
-        <v>314.193632629268</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I8" t="n">
-        <v>115.3066195468971</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S8" t="n">
-        <v>152.7676931992223</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T8" t="n">
-        <v>212.2897156032232</v>
+        <v>188.5854247372498</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1481678782825</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>289.2711946273568</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>310.7599048746349</v>
       </c>
       <c r="X8" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.5240586545474</v>
+        <v>347.7568748132755</v>
       </c>
     </row>
     <row r="9">
@@ -23109,16 +23111,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>137.2507501721256</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0227195864234</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>43.9218040015056</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>18.15252495527768</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S9" t="n">
-        <v>147.1499354121988</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T9" t="n">
-        <v>194.8409875848768</v>
+        <v>165.9669799394529</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.4553623994157</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>194.3195233066472</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>213.2139193181415</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23185,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>107.9528988037911</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>106.9399841801532</v>
       </c>
       <c r="G10" t="n">
-        <v>166.8836670385466</v>
+        <v>129.4467624225806</v>
       </c>
       <c r="H10" t="n">
-        <v>152.3821593358568</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I10" t="n">
-        <v>122.1505735248085</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J10" t="n">
-        <v>15.07219909888209</v>
+        <v>69.93238604749145</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,28 +23223,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R10" t="n">
-        <v>127.5046028836639</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S10" t="n">
-        <v>204.7191642435938</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U10" t="n">
-        <v>22.54475050117134</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>205.0685790855983</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>214.3420562403484</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>65.70991267247049</v>
@@ -23309,7 +23311,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>88.4364794428212</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U13" t="n">
         <v>286.2271541212006</v>
@@ -23476,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>170.0637574060561</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>80.85095794181399</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.547702772954</v>
+        <v>121.584926783246</v>
       </c>
       <c r="H14" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>65.70991267247049</v>
@@ -23555,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>103.8485367655383</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>52.41874763492363</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>24.55728874774263</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>166.1552708210787</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T17" t="n">
-        <v>131.1673011786917</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U17" t="n">
         <v>251.045250128462</v>
@@ -23795,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>97.52731589188241</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I19" t="n">
         <v>104.7965952039006</v>
@@ -23938,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>77.61193515748718</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>154.0939357335051</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>240.7025559510892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>115.3258519193759</v>
+        <v>45.973344578064</v>
       </c>
       <c r="H22" t="n">
         <v>147.2515091551288</v>
@@ -24181,10 +24183,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24209,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.357285140700583</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>36.80561848461861</v>
       </c>
       <c r="I23" t="n">
         <v>65.70991267247049</v>
@@ -24260,16 +24262,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3066000448042</v>
+        <v>117.1563130515736</v>
       </c>
       <c r="H25" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>104.7965952039006</v>
@@ -24418,10 +24420,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
-        <v>195.5290386500999</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24449,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>343.9331019244322</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>151.8873470602042</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24607,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
         <v>147.2515091551288</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>14.73936968781257</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>216.8034931298457</v>
       </c>
     </row>
     <row r="29">
@@ -24680,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>255.6963167108063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.547702772954</v>
+        <v>191.1009464905283</v>
       </c>
       <c r="H29" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,22 +24733,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I31" t="n">
         <v>104.7965952039006</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.2459207102722</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.56474013018737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>66.42295118531115</v>
+        <v>133.6038037724497</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24974,13 +24976,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>100.4154405304718</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.8034931298457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25157,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.547702772954</v>
+        <v>218.3482749421077</v>
       </c>
       <c r="H35" t="n">
         <v>301.0185525624054</v>
@@ -25214,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>103.8485367655374</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>153.5253779792056</v>
+        <v>100.4154405304718</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>341.8529467226894</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
-        <v>301.0185525624054</v>
+        <v>70.97552955034863</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>89.82535797284122</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3066000448042</v>
+        <v>89.85765586394213</v>
       </c>
       <c r="H40" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>104.7965952039006</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>256.8108591629993</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>301.0185525624054</v>
+        <v>133.6038037724497</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
         <v>194.6624603617375</v>
@@ -25840,16 +25842,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2271541212006</v>
+        <v>116.2533459076321</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>182.4085303613882</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25871,16 +25873,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>137.4364574322512</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>218.3482749421077</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
         <v>65.70991267247049</v>
@@ -26071,10 +26073,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>74.32920489499728</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>100.4154405304715</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>363138.6005703072</v>
+        <v>359021.0191897443</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>532330.3306144414</v>
+        <v>359021.0191897444</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>538365.4079099117</v>
+        <v>363138.6005703071</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>806363.4697212772</v>
+        <v>806363.4697212774</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>806363.4697212774</v>
+        <v>806363.4697212772</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>806363.4697212772</v>
+        <v>806363.4697212774</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>806363.4697212775</v>
+        <v>806363.4697212774</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>806363.4697212774</v>
+        <v>806363.4697212772</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>806363.4697212772</v>
+        <v>806363.4697212774</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>806363.4697212772</v>
+        <v>806363.4697212774</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>806363.4697212772</v>
+        <v>806363.4697212771</v>
       </c>
     </row>
     <row r="13">
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>106848.2536639094</v>
+      </c>
+      <c r="C2" t="n">
+        <v>106848.2536639094</v>
+      </c>
+      <c r="D2" t="n">
         <v>108546.914244862</v>
       </c>
-      <c r="C2" t="n">
-        <v>180960.8779563344</v>
-      </c>
-      <c r="D2" t="n">
-        <v>183569.9230774011</v>
-      </c>
       <c r="E2" t="n">
-        <v>275374.4674448774</v>
+        <v>275374.4674448775</v>
       </c>
       <c r="F2" t="n">
         <v>275374.4674448775</v>
@@ -26341,16 +26343,16 @@
         <v>275374.4674448775</v>
       </c>
       <c r="L2" t="n">
+        <v>275374.4674448774</v>
+      </c>
+      <c r="M2" t="n">
+        <v>275374.4674448774</v>
+      </c>
+      <c r="N2" t="n">
         <v>275374.4674448775</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>275374.4674448775</v>
-      </c>
-      <c r="N2" t="n">
-        <v>275374.4674448774</v>
-      </c>
-      <c r="O2" t="n">
-        <v>275374.4674448774</v>
       </c>
       <c r="P2" t="n">
         <v>275374.4674448774</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46642.83166352182</v>
+        <v>33550.04001897445</v>
       </c>
       <c r="C3" t="n">
-        <v>578508.5982072402</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>20304.34116800276</v>
+        <v>11694.33270688242</v>
       </c>
       <c r="E3" t="n">
-        <v>369622.2714301429</v>
+        <v>902069.2895150965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10068.33946807983</v>
+        <v>8880.174459335607</v>
       </c>
       <c r="K3" t="n">
-        <v>55747.01910627635</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2183.796219474673</v>
+        <v>1149.324541086689</v>
       </c>
       <c r="M3" t="n">
-        <v>93917.74874676278</v>
+        <v>150046.6674647825</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49591.9949979655</v>
+        <v>50377.71742942037</v>
       </c>
       <c r="C4" t="n">
-        <v>9775.658634767537</v>
+        <v>50377.71742942037</v>
       </c>
       <c r="D4" t="n">
-        <v>8280.976688028972</v>
+        <v>49591.99499796549</v>
       </c>
       <c r="E4" t="n">
+        <v>11359.04569987402</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11359.04569987402</v>
+      </c>
+      <c r="G4" t="n">
         <v>11359.04569987401</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>11359.04569987401</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11359.04569987402</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11359.04569987402</v>
       </c>
       <c r="I4" t="n">
         <v>11359.04569987402</v>
@@ -26442,13 +26444,13 @@
         <v>11359.04569987402</v>
       </c>
       <c r="K4" t="n">
-        <v>11359.04569987402</v>
+        <v>11359.04569987401</v>
       </c>
       <c r="L4" t="n">
         <v>11359.04569987401</v>
       </c>
       <c r="M4" t="n">
-        <v>11359.04569987402</v>
+        <v>11359.04569987401</v>
       </c>
       <c r="N4" t="n">
         <v>11359.04569987402</v>
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>36192.83842098849</v>
+      </c>
+      <c r="C5" t="n">
+        <v>36192.83842098849</v>
+      </c>
+      <c r="D5" t="n">
         <v>36730.71216531784</v>
       </c>
-      <c r="C5" t="n">
-        <v>62074.5699651066</v>
-      </c>
-      <c r="D5" t="n">
-        <v>63047.80320426619</v>
-      </c>
       <c r="E5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="F5" t="n">
         <v>59310.17243984471</v>
@@ -26485,13 +26487,13 @@
         <v>59310.17243984471</v>
       </c>
       <c r="H5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984472</v>
       </c>
       <c r="I5" t="n">
         <v>59310.17243984471</v>
       </c>
       <c r="J5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="K5" t="n">
         <v>59310.17243984471</v>
@@ -26500,7 +26502,7 @@
         <v>59310.17243984471</v>
       </c>
       <c r="M5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="N5" t="n">
         <v>59310.17243984471</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24418.62458194312</v>
+        <v>-13272.34220547391</v>
       </c>
       <c r="C6" t="n">
-        <v>-469397.9488507799</v>
+        <v>20277.69781350057</v>
       </c>
       <c r="D6" t="n">
-        <v>91936.80201710314</v>
+        <v>10529.87437469628</v>
       </c>
       <c r="E6" t="n">
-        <v>-164917.0221249842</v>
+        <v>-697364.0402099377</v>
       </c>
       <c r="F6" t="n">
         <v>204705.2493051589</v>
       </c>
       <c r="G6" t="n">
-        <v>204705.2493051588</v>
+        <v>204705.2493051589</v>
       </c>
       <c r="H6" t="n">
-        <v>204705.2493051589</v>
+        <v>204705.2493051586</v>
       </c>
       <c r="I6" t="n">
         <v>204705.2493051587</v>
       </c>
       <c r="J6" t="n">
-        <v>194636.9098370789</v>
+        <v>195825.0748458232</v>
       </c>
       <c r="K6" t="n">
-        <v>148958.2301988824</v>
+        <v>204705.2493051588</v>
       </c>
       <c r="L6" t="n">
-        <v>202521.4530856842</v>
+        <v>203555.924764072</v>
       </c>
       <c r="M6" t="n">
-        <v>110787.500558396</v>
+        <v>54658.58184037625</v>
       </c>
       <c r="N6" t="n">
-        <v>204705.2493051587</v>
+        <v>204705.2493051589</v>
       </c>
       <c r="O6" t="n">
-        <v>204705.2493051587</v>
+        <v>204705.2493051588</v>
       </c>
       <c r="P6" t="n">
         <v>204705.2493051587</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>23.01338268678932</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23.01338268678932</v>
+      </c>
+      <c r="D3" t="n">
         <v>35.02126071912533</v>
-      </c>
-      <c r="C3" t="n">
-        <v>593.4761003380651</v>
-      </c>
-      <c r="D3" t="n">
-        <v>614.0550137694783</v>
       </c>
       <c r="E3" t="n">
         <v>934.0648921175392</v>
@@ -26750,10 +26752,10 @@
         <v>934.0648921175392</v>
       </c>
       <c r="G3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="H3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="I3" t="n">
         <v>934.0648921175392</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>33.93991247395534</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33.93991247395533</v>
+      </c>
+      <c r="D4" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="C4" t="n">
-        <v>255.0853779233022</v>
-      </c>
-      <c r="D4" t="n">
-        <v>263.7138800015061</v>
-      </c>
       <c r="E4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="F4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="G4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="H4" t="n">
         <v>640.5848321000389</v>
@@ -26811,7 +26813,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>640.5848321000389</v>
@@ -26820,10 +26822,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="M4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O4" t="n">
         <v>640.5848321000387</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>558.4548396189398</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>20.57891343141318</v>
+        <v>12.00787803233601</v>
       </c>
       <c r="E3" t="n">
-        <v>320.009878348061</v>
+        <v>899.0436313984139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.48106384277808</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6043140805242</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>8.628502078203894</v>
+        <v>4.541151368822746</v>
       </c>
       <c r="E4" t="n">
-        <v>376.8709520985326</v>
+        <v>602.1037682572609</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>38.4810638427781</v>
+        <v>33.93991247395547</v>
       </c>
       <c r="K4" t="n">
-        <v>216.6043140805242</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>8.62850207820378</v>
+        <v>4.541151368822632</v>
       </c>
       <c r="M4" t="n">
-        <v>376.8709520985328</v>
+        <v>602.1037682572609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>38.48106384277808</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="K4" t="n">
-        <v>216.6043140805242</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>8.628502078203894</v>
+        <v>4.541151368822746</v>
       </c>
       <c r="M4" t="n">
-        <v>376.8709520985326</v>
+        <v>602.1037682572609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894682</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179684</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38583356919825</v>
+        <v>0.09251611130367558</v>
       </c>
       <c r="H5" t="n">
-        <v>24.43391804055158</v>
+        <v>0.9474806248887679</v>
       </c>
       <c r="I5" t="n">
-        <v>91.97984867651562</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J5" t="n">
-        <v>202.4946418937401</v>
+        <v>7.852189301760344</v>
       </c>
       <c r="K5" t="n">
-        <v>303.4869768779021</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L5" t="n">
-        <v>376.5024309712531</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M5" t="n">
-        <v>418.9314987074825</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N5" t="n">
-        <v>425.710248335967</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O5" t="n">
-        <v>401.9861157822519</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P5" t="n">
-        <v>343.0858495426701</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q5" t="n">
-        <v>257.6431848457577</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>5.811515176679516</v>
       </c>
       <c r="S5" t="n">
-        <v>54.36718245810517</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T5" t="n">
-        <v>10.44398644916534</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.276533498840366</v>
+        <v>0.0495004835149808</v>
       </c>
       <c r="H6" t="n">
-        <v>12.32862615985301</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I6" t="n">
-        <v>43.95082441182841</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J6" t="n">
-        <v>120.6044214847383</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K6" t="n">
-        <v>206.1321659070429</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L6" t="n">
-        <v>277.1701353512822</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M6" t="n">
-        <v>323.4444746842454</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N6" t="n">
-        <v>332.0050874900653</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O6" t="n">
-        <v>303.7197925947077</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P6" t="n">
-        <v>243.7619099671574</v>
+        <v>9.452421277522957</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.9483813607457</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R6" t="n">
-        <v>79.25705355080804</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S6" t="n">
-        <v>23.71104985784626</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T6" t="n">
-        <v>5.145325813308317</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.070202803888314</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H7" t="n">
-        <v>9.515075838207016</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I7" t="n">
-        <v>32.18391704784131</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J7" t="n">
-        <v>75.66333823490379</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3381075790241</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L7" t="n">
-        <v>159.1099695889953</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M7" t="n">
-        <v>167.7591540676927</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N7" t="n">
-        <v>163.7702163441091</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O7" t="n">
-        <v>151.2683017714137</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P7" t="n">
-        <v>129.436164572092</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.61489115104783</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R7" t="n">
-        <v>48.12020970937817</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S7" t="n">
-        <v>18.65071613685361</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T7" t="n">
-        <v>4.572684707522795</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.468562869425036</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H8" t="n">
-        <v>25.28116948649916</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I8" t="n">
-        <v>95.1692700235088</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J8" t="n">
-        <v>209.5161878388634</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
-        <v>314.0104541016252</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L8" t="n">
-        <v>389.5577350167918</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M8" t="n">
-        <v>433.4580399459292</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N8" t="n">
-        <v>440.4718441986831</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O8" t="n">
-        <v>415.9250721658379</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P8" t="n">
-        <v>354.9824263269073</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q8" t="n">
-        <v>266.5770185656231</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R8" t="n">
-        <v>155.0658623465206</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S8" t="n">
-        <v>56.25237638702307</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T8" t="n">
-        <v>10.8061339609081</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.32079757678718</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H9" t="n">
-        <v>12.75612396528671</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I9" t="n">
-        <v>45.47482884990948</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J9" t="n">
-        <v>124.7864061472484</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K9" t="n">
-        <v>213.2798437919895</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L9" t="n">
-        <v>286.7810703458304</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M9" t="n">
-        <v>334.6599825043656</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N9" t="n">
-        <v>343.517436429399</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O9" t="n">
-        <v>314.2513427542725</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P9" t="n">
-        <v>252.2144074480712</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q9" t="n">
-        <v>168.5986520825179</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R9" t="n">
-        <v>82.00530919736545</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S9" t="n">
-        <v>24.53323569163905</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T9" t="n">
-        <v>5.323741109944814</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.107312319912174</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H10" t="n">
-        <v>9.845013171582789</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I10" t="n">
-        <v>33.29990140244975</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J10" t="n">
-        <v>78.28698101779068</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K10" t="n">
-        <v>128.6495586225234</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L10" t="n">
-        <v>164.6271425440336</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M10" t="n">
-        <v>173.576239384051</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N10" t="n">
-        <v>169.4489843734694</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O10" t="n">
-        <v>156.513563181768</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P10" t="n">
-        <v>133.9243918555596</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.72230707919121</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R10" t="n">
-        <v>49.78878849350555</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S10" t="n">
-        <v>19.29743379337851</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T10" t="n">
-        <v>4.731243548715651</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U10" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32227,43 +32229,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H17" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I17" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J17" t="n">
-        <v>318.7038799491896</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K17" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L17" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M17" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N17" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O17" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P17" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q17" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R17" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S17" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T17" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U17" t="n">
         <v>0.3004027793744847</v>
@@ -32306,10 +32308,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H18" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I18" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J18" t="n">
         <v>189.8178475575841</v>
@@ -32318,7 +32320,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L18" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M18" t="n">
         <v>509.0653662040588</v>
@@ -32327,25 +32329,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O18" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P18" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q18" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R18" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S18" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T18" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,7 +32390,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I19" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J19" t="n">
         <v>119.0856174753787</v>
@@ -32403,10 +32405,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N19" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O19" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P19" t="n">
         <v>203.7180217169137</v>
@@ -32418,13 +32420,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S19" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T19" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H20" t="n">
         <v>38.45624955336179</v>
@@ -32476,16 +32478,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L20" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M20" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N20" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O20" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P20" t="n">
         <v>539.9786897190645</v>
@@ -32497,7 +32499,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S20" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T20" t="n">
         <v>16.4376645838976</v>
@@ -32546,7 +32548,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I21" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J21" t="n">
         <v>189.8178475575841</v>
@@ -32558,16 +32560,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M21" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N21" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O21" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P21" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q21" t="n">
         <v>256.4624964168761</v>
@@ -32625,7 +32627,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I22" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J22" t="n">
         <v>119.0856174753787</v>
@@ -32652,7 +32654,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R22" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S22" t="n">
         <v>29.35413767523479</v>
@@ -32661,7 +32663,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34369,7 +34371,7 @@
         <v>318.70387994919</v>
       </c>
       <c r="K44" t="n">
-        <v>477.6545005857139</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L44" t="n">
         <v>592.572645076738</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>36.92627338448403</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>32.56860287904804</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.48106384277808</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="P2" t="n">
-        <v>38.48106384277808</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K3" t="n">
-        <v>38.48106384277808</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="L3" t="n">
-        <v>36.92627338448403</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>28.63848405005941</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M4" t="n">
-        <v>38.48106384277808</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="N4" t="n">
-        <v>38.48106384277808</v>
+        <v>33.93991247395534</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831901</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012659</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>32.56860287904802</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.82994420832314</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>138.615755571408</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.2436824009746</v>
+        <v>28.63848405005938</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>102.0686157531412</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>186.6999948493115</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M7" t="n">
-        <v>207.3430310295333</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="N7" t="n">
-        <v>207.9023887233377</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="O7" t="n">
-        <v>175.8534296854534</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P7" t="n">
-        <v>126.7147238369855</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.452847899353443</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>28.47028331217709</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>93.92060305664467</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>153.7913200468045</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>203.1118067186565</v>
+        <v>31.71334579105919</v>
       </c>
       <c r="N8" t="n">
-        <v>211.0587806020922</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="O8" t="n">
-        <v>185.8268607441512</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="P8" t="n">
-        <v>123.7494305716377</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="Q8" t="n">
-        <v>44.27132869117358</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>75.43840481763047</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>148.2266905659562</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>192.5259485823473</v>
+        <v>36.92627338448403</v>
       </c>
       <c r="N9" t="n">
-        <v>212.1757243460657</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>171.6550983098281</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="P9" t="n">
-        <v>118.240000033741</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="Q9" t="n">
-        <v>125.9385470877688</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,25 +35333,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>106.3800667966406</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>192.2171678043497</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M10" t="n">
-        <v>213.1601163458916</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="N10" t="n">
-        <v>213.581156752698</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="O10" t="n">
-        <v>181.0986910958077</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P10" t="n">
-        <v>131.2029511204531</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.560263827496826</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K12" t="n">
-        <v>355.3309544215489</v>
+        <v>355.3309544215498</v>
       </c>
       <c r="L12" t="n">
         <v>297.6803606378502</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K15" t="n">
         <v>186.5874962434848</v>
@@ -35732,22 +35734,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M15" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N15" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O15" t="n">
-        <v>335.424681996123</v>
+        <v>464.8576954028719</v>
       </c>
       <c r="P15" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q15" t="n">
-        <v>122.9351598697843</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>137.6579754225033</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K17" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L17" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M17" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N17" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O17" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P17" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R17" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K18" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L18" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M18" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N18" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0158803980277</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P18" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K19" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L19" t="n">
         <v>278.0112915831069</v>
@@ -36051,7 +36053,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N19" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O19" t="n">
         <v>262.6644876295069</v>
@@ -36060,7 +36062,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,19 +36123,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K20" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L20" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M20" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N20" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O20" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P20" t="n">
         <v>308.745693963795</v>
@@ -36142,7 +36144,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R20" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K21" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L21" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M21" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N21" t="n">
-        <v>464.8576954028719</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O21" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P21" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R21" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K22" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L22" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M22" t="n">
         <v>303.6179906468033</v>
@@ -36291,13 +36293,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O22" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P22" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>356.8062301067508</v>
       </c>
       <c r="M23" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N23" t="n">
         <v>440.6071730376315</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>62.98022089091742</v>
+        <v>69.43465842984736</v>
       </c>
       <c r="K24" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L24" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M24" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N24" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O24" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P24" t="n">
-        <v>490.1260733652765</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q24" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R24" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R26" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K27" t="n">
-        <v>355.3309544215493</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378502</v>
@@ -36695,7 +36697,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R27" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K29" t="n">
         <v>257.5646495407337</v>
@@ -36914,13 +36916,13 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L30" t="n">
-        <v>508.7132618620064</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M30" t="n">
         <v>366.9313322820405</v>
       </c>
       <c r="N30" t="n">
-        <v>391.1970995928739</v>
+        <v>392.1527130811807</v>
       </c>
       <c r="O30" t="n">
         <v>335.424681996123</v>
@@ -36929,7 +36931,7 @@
         <v>568.1422977634695</v>
       </c>
       <c r="Q30" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K32" t="n">
-        <v>257.5646495407334</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L32" t="n">
         <v>356.8062301067508</v>
@@ -37148,10 +37150,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K33" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L33" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M33" t="n">
         <v>366.9313322820405</v>
@@ -37166,7 +37168,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q33" t="n">
-        <v>176.9808853923499</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>356.8062301067508</v>
       </c>
       <c r="M35" t="n">
-        <v>429.0050109457283</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N35" t="n">
         <v>440.6071730376315</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K36" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M36" t="n">
-        <v>622.4553810291986</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N36" t="n">
-        <v>640.584832100039</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O36" t="n">
         <v>335.424681996123</v>
@@ -37403,10 +37405,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q36" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R36" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M39" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N39" t="n">
-        <v>391.1970995928739</v>
+        <v>622.4553810291984</v>
       </c>
       <c r="O39" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P39" t="n">
-        <v>544.5140226420053</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q39" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R39" t="n">
         <v>24.58388860977092</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K42" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L42" t="n">
-        <v>484.1293732522352</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M42" t="n">
         <v>366.9313322820405</v>
@@ -37874,13 +37876,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P42" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q42" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R42" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K44" t="n">
-        <v>257.5646495407334</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L44" t="n">
         <v>356.8062301067508</v>
@@ -38096,7 +38098,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K45" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L45" t="n">
         <v>297.6803606378502</v>
@@ -38114,10 +38116,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q45" t="n">
-        <v>230.836231232189</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R45" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
